--- a/knowledge/Russian.xlsx
+++ b/knowledge/Russian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\PycharmProjects\rsppr\knowledge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75B068F-C9EE-4DF3-99B7-0BD86834BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB54A33-035A-422A-AD4A-2C9C888EC478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -60,18 +60,12 @@
     <t>У вас с 90-х годов дерусификация, теперь мы сделаем дехохлянизацию</t>
   </si>
   <si>
-    <t>У вас презедент буквально клоун</t>
-  </si>
-  <si>
     <t>0.9</t>
   </si>
   <si>
     <t>А ты всех под одну гребенку не стреги, то, что я нацист это дело мое</t>
   </si>
   <si>
-    <t>Мы нацисты? Это видимо ты так много времени бомбили Донбасс и не скрывая ненавидили русских</t>
-  </si>
-  <si>
     <t>И зачем вам в ес? Ближе к абвгд+?</t>
   </si>
   <si>
@@ -87,27 +81,18 @@
     <t>Сказал человек, который реально верит в безвозмездную помощь от запада и ес</t>
   </si>
   <si>
-    <t>Вот вы говорите про голодомор, а он был везде. Получается что? Нелостаток внимания??XD</t>
-  </si>
-  <si>
     <t>Зеленский вообще торч</t>
   </si>
   <si>
     <t>ЛДНР русский!!!</t>
   </si>
   <si>
-    <t>Пока твой "презедент" играл писькой на пианино, наш с него ржал</t>
-  </si>
-  <si>
     <t xml:space="preserve">Майдан - процесс отбора власти военным путем </t>
   </si>
   <si>
     <t>После майдана у вас буквально воровская шайка у власти</t>
   </si>
   <si>
-    <t>Вас поддерживает страна с презедентом с деменцией</t>
-  </si>
-  <si>
     <t>Че там по хим лабораториям??</t>
   </si>
   <si>
@@ -130,6 +115,21 @@
   </si>
   <si>
     <t>На украину</t>
+  </si>
+  <si>
+    <t>Мы нацисты? Это видимо ты так много времени бомбили Донбасс и не скрывая ненавидели русских</t>
+  </si>
+  <si>
+    <t>Вас поддерживает страна с президентом с деменцией</t>
+  </si>
+  <si>
+    <t>У вас президент буквально клоун</t>
+  </si>
+  <si>
+    <t>Пока твой "президент" играл писькой на пианино, наш с него ржал</t>
+  </si>
+  <si>
+    <t>Вот вы говорите про голодомор, а он был везде. Получается что? Недостаток внимания??XD</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="B1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,12 +478,12 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -571,10 +571,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -637,10 +637,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
